--- a/заказы/статистика филиалы/2023/11,23/15,11,23 КИ/дв 15,11,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/15,11,23 КИ/дв 15,11,23 млрсч.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\15,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A20AB-49BF-4A22-A86B-9C96203CD9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F969AE8A-8BBA-468D-976A-4D24FE45A1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="211" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$E$80</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -10232,8 +10232,8 @@
   <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
